--- a/output/StructureDefinition-t-cabs-observation-beatmungsstunden.xlsx
+++ b/output/StructureDefinition-t-cabs-observation-beatmungsstunden.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$111</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3770" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4306" uniqueCount="621">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T14:55:10+01:00</t>
+    <t>2025-03-19T16:19:18+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil für die Anzahl der Beatmungsstunden</t>
+    <t>Profil für die empfohlene oder tatsächlich gemessene Anzahl der Beatmungsstunden je 24 Stunden</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1603,7 +1603,7 @@
     <t>Provides guide for interpretation</t>
   </si>
   <si>
-    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.</t>
+    <t>Grenzwerte, die bei Unter- oder Überschreitung einen Alarm auslösen.</t>
   </si>
   <si>
     <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.</t>
@@ -1652,7 +1652,7 @@
 </t>
   </si>
   <si>
-    <t>Low Range, if relevant</t>
+    <t>Untere Grenze des Parameters.</t>
   </si>
   <si>
     <t>The value of the low bound of the reference range.  The low bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the low bound is omitted,  it is assumed to be meaningless (e.g. reference range is &lt;=2.3).</t>
@@ -1675,10 +1675,38 @@
     <t>value:IVL_PQ.low</t>
   </si>
   <si>
+    <t>Observation.referenceRange.low.id</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.low.extension</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.low.value</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.low.comparator</t>
+  </si>
+  <si>
+    <t>Not allowed to be used in this context</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.low.unit</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.low.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.low.code</t>
+  </si>
+  <si>
     <t>Observation.referenceRange.high</t>
   </si>
   <si>
-    <t>High Range, if relevant</t>
+    <t>Obere Grenze des Parameters.</t>
   </si>
   <si>
     <t>The value of the high bound of the reference range.  The high bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the high bound is omitted,  it is assumed to be meaningless (e.g. reference range is &gt;= 2.3).</t>
@@ -1687,6 +1715,27 @@
     <t>value:IVL_PQ.high</t>
   </si>
   <si>
+    <t>Observation.referenceRange.high.id</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.high.extension</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.high.value</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.high.comparator</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.high.unit</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.high.system</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.high.code</t>
+  </si>
+  <si>
     <t>Observation.referenceRange.type</t>
   </si>
   <si>
@@ -1700,6 +1749,14 @@
   </si>
   <si>
     <t>Need to be able to say what kind of reference range this is - normal, recommended, therapeutic, etc.,  - for proper interpretation.</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/referencerange-meaning"/&gt;
+    &lt;code value="therapeutic"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Code for the meaning of a reference range.</t>
@@ -2227,7 +2284,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP97"/>
+  <dimension ref="A1:AP111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -11492,7 +11549,7 @@
         <v>81</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>20</v>
@@ -11974,7 +12031,7 @@
         <v>92</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>20</v>
@@ -12103,17 +12160,15 @@
         <v>20</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>522</v>
+        <v>209</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>531</v>
+        <v>210</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>525</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>20</v>
@@ -12162,7 +12217,7 @@
         <v>20</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>530</v>
+        <v>212</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12171,10 +12226,10 @@
         <v>92</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>526</v>
+        <v>20</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>527</v>
+        <v>20</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>20</v>
@@ -12183,10 +12238,10 @@
         <v>20</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>528</v>
+        <v>20</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>533</v>
+        <v>113</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>20</v>
@@ -12197,21 +12252,21 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>20</v>
@@ -12223,20 +12278,18 @@
         <v>20</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>535</v>
+        <v>141</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>536</v>
+        <v>214</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>20</v>
       </c>
@@ -12260,55 +12313,55 @@
         <v>20</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>539</v>
+        <v>20</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>540</v>
+        <v>20</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>534</v>
+        <v>215</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>541</v>
+        <v>20</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>542</v>
+        <v>20</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>461</v>
+        <v>113</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>20</v>
@@ -12319,10 +12372,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12330,34 +12383,34 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>197</v>
+        <v>399</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>544</v>
+        <v>400</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>545</v>
+        <v>401</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>546</v>
+        <v>402</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>547</v>
+        <v>403</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>20</v>
@@ -12382,13 +12435,13 @@
         <v>20</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>548</v>
+        <v>20</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>549</v>
+        <v>20</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>20</v>
@@ -12406,16 +12459,16 @@
         <v>20</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>543</v>
+        <v>404</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>105</v>
@@ -12424,13 +12477,13 @@
         <v>20</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>541</v>
+        <v>20</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>542</v>
+        <v>405</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>461</v>
+        <v>406</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>20</v>
@@ -12441,10 +12494,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12455,36 +12508,36 @@
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>551</v>
+        <v>115</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>552</v>
+        <v>408</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>554</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>555</v>
+        <v>410</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="R85" t="s" s="2">
         <v>20</v>
       </c>
@@ -12504,13 +12557,13 @@
         <v>20</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>20</v>
+        <v>412</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>20</v>
+        <v>413</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>20</v>
@@ -12528,7 +12581,7 @@
         <v>20</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>550</v>
+        <v>414</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12537,10 +12590,10 @@
         <v>92</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>556</v>
+        <v>105</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>20</v>
@@ -12549,10 +12602,10 @@
         <v>20</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>557</v>
+        <v>415</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>558</v>
+        <v>416</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>20</v>
@@ -12563,10 +12616,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12580,27 +12633,27 @@
         <v>92</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>209</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>560</v>
+        <v>418</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O86" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>20</v>
       </c>
@@ -12648,7 +12701,7 @@
         <v>20</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>559</v>
+        <v>421</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12657,7 +12710,7 @@
         <v>92</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>105</v>
@@ -12669,10 +12722,10 @@
         <v>20</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>528</v>
+        <v>422</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>562</v>
+        <v>423</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>20</v>
@@ -12683,10 +12736,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>563</v>
+        <v>536</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>563</v>
+        <v>536</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12697,7 +12750,7 @@
         <v>80</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>20</v>
@@ -12709,18 +12762,18 @@
         <v>93</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>564</v>
+        <v>108</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>565</v>
+        <v>425</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O87" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>20</v>
       </c>
@@ -12729,7 +12782,7 @@
         <v>20</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>20</v>
+        <v>429</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>20</v>
@@ -12768,19 +12821,19 @@
         <v>20</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>563</v>
+        <v>430</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>104</v>
+        <v>537</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>20</v>
@@ -12789,10 +12842,10 @@
         <v>20</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>568</v>
+        <v>422</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>569</v>
+        <v>432</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>20</v>
@@ -12803,10 +12856,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>570</v>
+        <v>538</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>570</v>
+        <v>538</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12814,13 +12867,13 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>20</v>
@@ -12829,18 +12882,20 @@
         <v>93</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>571</v>
+        <v>115</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>572</v>
+        <v>434</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>573</v>
+        <v>435</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="O88" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>20</v>
       </c>
@@ -12888,19 +12943,19 @@
         <v>20</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>570</v>
+        <v>439</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>20</v>
@@ -12909,10 +12964,10 @@
         <v>20</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>568</v>
+        <v>422</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>575</v>
+        <v>440</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>20</v>
@@ -12923,10 +12978,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>576</v>
+        <v>539</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>576</v>
+        <v>539</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12937,32 +12992,30 @@
         <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>577</v>
+        <v>540</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>578</v>
+        <v>541</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>580</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>20</v>
       </c>
@@ -13010,19 +13063,19 @@
         <v>20</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>576</v>
+        <v>539</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>104</v>
+        <v>526</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>105</v>
+        <v>527</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>20</v>
@@ -13031,10 +13084,10 @@
         <v>20</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>581</v>
+        <v>528</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>582</v>
+        <v>542</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>20</v>
@@ -13045,10 +13098,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>583</v>
+        <v>543</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>583</v>
+        <v>543</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13163,10 +13216,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>584</v>
+        <v>544</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>584</v>
+        <v>544</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13257,7 +13310,7 @@
         <v>81</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>148</v>
@@ -13272,7 +13325,7 @@
         <v>20</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>20</v>
@@ -13283,45 +13336,45 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>585</v>
+        <v>545</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>585</v>
+        <v>545</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>517</v>
+        <v>20</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J92" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>140</v>
+        <v>399</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>518</v>
+        <v>400</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>519</v>
+        <v>401</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>143</v>
+        <v>402</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>152</v>
+        <v>403</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>20</v>
@@ -13370,19 +13423,19 @@
         <v>20</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>520</v>
+        <v>404</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>20</v>
@@ -13391,10 +13444,10 @@
         <v>20</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>20</v>
+        <v>405</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>106</v>
+        <v>406</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>20</v>
@@ -13405,10 +13458,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>586</v>
+        <v>546</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>586</v>
+        <v>546</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13416,39 +13469,39 @@
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="J93" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>197</v>
+        <v>115</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>587</v>
+        <v>408</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>589</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>279</v>
+        <v>410</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="R93" t="s" s="2">
         <v>20</v>
       </c>
@@ -13468,13 +13521,13 @@
         <v>20</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>281</v>
+        <v>412</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>282</v>
+        <v>413</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>20</v>
@@ -13492,16 +13545,16 @@
         <v>20</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>586</v>
+        <v>414</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>105</v>
@@ -13510,16 +13563,16 @@
         <v>20</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>590</v>
+        <v>20</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>285</v>
+        <v>415</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>286</v>
+        <v>416</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>287</v>
+        <v>20</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>20</v>
@@ -13527,10 +13580,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>591</v>
+        <v>547</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>591</v>
+        <v>547</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13544,7 +13597,7 @@
         <v>92</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>20</v>
@@ -13553,19 +13606,17 @@
         <v>93</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>592</v>
+        <v>209</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>593</v>
+        <v>418</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>594</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>20</v>
@@ -13614,7 +13665,7 @@
         <v>20</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>591</v>
+        <v>421</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13623,7 +13674,7 @@
         <v>92</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>105</v>
@@ -13632,27 +13683,27 @@
         <v>20</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>595</v>
+        <v>20</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>393</v>
+        <v>422</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>394</v>
+        <v>423</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>395</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>596</v>
+        <v>548</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>596</v>
+        <v>548</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13672,22 +13723,20 @@
         <v>20</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>197</v>
+        <v>108</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>597</v>
+        <v>425</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>599</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>20</v>
@@ -13697,7 +13746,7 @@
         <v>20</v>
       </c>
       <c r="S95" t="s" s="2">
-        <v>20</v>
+        <v>429</v>
       </c>
       <c r="T95" t="s" s="2">
         <v>20</v>
@@ -13712,13 +13761,13 @@
         <v>20</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>446</v>
+        <v>20</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>447</v>
+        <v>20</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>448</v>
+        <v>20</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>20</v>
@@ -13736,7 +13785,7 @@
         <v>20</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>596</v>
+        <v>430</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13745,7 +13794,7 @@
         <v>92</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>449</v>
+        <v>537</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>105</v>
@@ -13757,10 +13806,10 @@
         <v>20</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>106</v>
+        <v>422</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>20</v>
@@ -13771,45 +13820,45 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>600</v>
+        <v>549</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>600</v>
+        <v>549</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>452</v>
+        <v>20</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>197</v>
+        <v>115</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>20</v>
@@ -13834,13 +13883,13 @@
         <v>20</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>446</v>
+        <v>20</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>457</v>
+        <v>20</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>458</v>
+        <v>20</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>20</v>
@@ -13858,16 +13907,16 @@
         <v>20</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>600</v>
+        <v>439</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>105</v>
@@ -13876,27 +13925,27 @@
         <v>20</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>459</v>
+        <v>20</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>460</v>
+        <v>422</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP96" t="s" s="2">
-        <v>462</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>601</v>
+        <v>550</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>601</v>
+        <v>550</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13907,7 +13956,7 @@
         <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>20</v>
@@ -13919,19 +13968,19 @@
         <v>20</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>602</v>
+        <v>551</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>603</v>
+        <v>552</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>509</v>
+        <v>553</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>510</v>
+        <v>554</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>20</v>
@@ -13941,7 +13990,7 @@
         <v>20</v>
       </c>
       <c r="S97" t="s" s="2">
-        <v>20</v>
+        <v>555</v>
       </c>
       <c r="T97" t="s" s="2">
         <v>20</v>
@@ -13956,13 +14005,13 @@
         <v>20</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>20</v>
+        <v>556</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>20</v>
+        <v>557</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>20</v>
@@ -13980,41 +14029,1737 @@
         <v>20</v>
       </c>
       <c r="AF97" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AO97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP97" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="P98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP98" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="P99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP99" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP100" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP101" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP102" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="P103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP103" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP104" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="AG97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH97" t="s" s="2">
+      <c r="B105" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G105" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AI97" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM97" t="s" s="2">
+      <c r="H105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O105" s="2"/>
+      <c r="P105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP105" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="P106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP106" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="P107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AO107" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AP107" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="P108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP108" t="s" s="2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="P109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AO109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP109" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="P110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AO110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP110" t="s" s="2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="P111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM111" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="AN97" t="s" s="2">
+      <c r="AN111" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="AO97" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP97" t="s" s="2">
+      <c r="AO111" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP111" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP97">
+  <autoFilter ref="A1:AP111">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14024,7 +15769,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI96">
+  <conditionalFormatting sqref="A2:AI110">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-t-cabs-observation-beatmungsstunden.xlsx
+++ b/output/StructureDefinition-t-cabs-observation-beatmungsstunden.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-19T16:19:18+01:00</t>
+    <t>2025-03-25T16:42:03+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-t-cabs-observation-beatmungsstunden.xlsx
+++ b/output/StructureDefinition-t-cabs-observation-beatmungsstunden.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-02T15:35:32+02:00</t>
+    <t>2025-04-11T09:40:45+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
